--- a/test_case_data/bmc/bmc_testcase_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase_20210513.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1994">
   <si>
     <t>caseNum</t>
   </si>
@@ -9637,6 +9637,10 @@
   <si>
     <t>expectResult</t>
     <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlqqqqq</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -29108,7 +29112,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29150,7 +29154,7 @@
         <v>1990</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>5</v>
+        <v>1993</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>6</v>

--- a/test_case_data/bmc/bmc_testcase_20210513.xlsx
+++ b/test_case_data/bmc/bmc_testcase_20210513.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5465" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5465" uniqueCount="1946">
   <si>
     <t>caseNum</t>
   </si>
@@ -9482,6 +9482,14 @@
   </si>
   <si>
     <t>urlqqqqq</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -14115,9 +14123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14164,7 +14172,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>7</v>
+        <v>1944</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
@@ -14176,7 +14184,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>11</v>
+        <v>1945</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>12</v>
@@ -17036,7 +17044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -29091,7 +29099,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29117,19 +29137,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29150,7 +29158,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -29168,7 +29176,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
